--- a/config/probe/tmp.xlsx
+++ b/config/probe/tmp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13360" firstSheet="4" activeTab="9"/>
+    <workbookView windowWidth="28000" windowHeight="13360" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="存活IP" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>ip</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>poc名称</t>
+  </si>
+  <si>
+    <t>请求报文</t>
+  </si>
+  <si>
+    <t>响应包</t>
   </si>
   <si>
     <t>path</t>
@@ -116,8 +122,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -137,52 +143,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,17 +187,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,37 +266,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,187 +288,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,21 +487,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,21 +526,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -573,150 +549,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1073,7 +1079,7 @@
   <sheetPr/>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1117,13 +1123,13 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1387,22 +1393,23 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="3" max="3" width="11.9017857142857" customWidth="1"/>
     <col min="4" max="4" width="11.3035714285714" customWidth="1"/>
     <col min="5" max="5" width="13.0892857142857" customWidth="1"/>
     <col min="6" max="6" width="11.6071428571429" customWidth="1"/>
     <col min="7" max="7" width="10.5535714285714" customWidth="1"/>
+    <col min="8" max="8" width="12.1964285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1423,6 +1430,12 @@
       </c>
       <c r="G1" t="s">
         <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/config/probe/tmp.xlsx
+++ b/config/probe/tmp.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13360" firstSheet="4" activeTab="8"/>
+    <workbookView windowWidth="28000" windowHeight="13340" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="存活IP" sheetId="1" r:id="rId1"/>
+    <sheet name="存活主机" sheetId="1" r:id="rId1"/>
     <sheet name="网卡信息" sheetId="6" r:id="rId2"/>
     <sheet name="IP段" sheetId="2" r:id="rId3"/>
     <sheet name="端口信息" sheetId="3" r:id="rId4"/>
@@ -26,7 +26,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
-    <t>ip</t>
+    <t>ip/域名</t>
   </si>
   <si>
     <t>网卡信息</t>
@@ -121,9 +121,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -156,16 +156,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,9 +242,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,60 +251,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,21 +278,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -294,181 +294,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,22 +506,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,37 +555,27 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,142 +584,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1055,7 +1055,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
@@ -1108,7 +1108,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
@@ -1144,7 +1144,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
@@ -1204,7 +1204,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
@@ -1237,8 +1237,8 @@
   <sheetPr/>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
@@ -1290,7 +1290,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A2:E2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -1354,8 +1354,8 @@
   <sheetPr/>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -1395,8 +1395,8 @@
   <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
